--- a/biology/Microbiologie/Protospathidiidae/Protospathidiidae.xlsx
+++ b/biology/Microbiologie/Protospathidiidae/Protospathidiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Protospathidiidae sont une famille de chromistes de l'embranchement des Ciliophora, de la classe des Gymnostomatea, et de l'ordre des Spathidiida.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Protospathidium, composé de proto, premier, et -spathidium, par allusion au genre Spathidium, genre type de la famille des Spathidiidae (la désinence latine ium signifiant « relatif à »).
 </t>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,6 +586,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -595,11 +613,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (15 janvier 2023)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (15 janvier 2023) :
 Edaphospathula Foissner &amp; Xu, 2006
-Protospathidium[2] Foissner, 1984[note 1]
+Protospathidium Foissner, 1984[note 1]
 Espèce type Protospathidium muscicola Dragesco &amp; Dragesco-Kerneis, 1979</t>
         </is>
       </c>
@@ -628,9 +648,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct de ce taxon est Protospathidiidae Foissner &amp; Xu, 2006[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct de ce taxon est Protospathidiidae Foissner &amp; Xu, 2006.
 </t>
         </is>
       </c>
